--- a/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/ResNet results/ResNet_cc12.xlsx
+++ b/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/ResNet results/ResNet_cc12.xlsx
@@ -556,7 +556,7 @@
   <dimension ref="A1:AN111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AL11" sqref="AL11:AN37"/>
+      <selection activeCell="AL9" sqref="AL9:AN38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="AN11" s="7">
-        <f>AM11/(SUM(AM$11:AM$37))</f>
+        <f>AM11/(SUM(AM$11:AM$38))</f>
         <v>0</v>
       </c>
     </row>
@@ -2084,11 +2084,11 @@
         <v>1</v>
       </c>
       <c r="AM12" s="5">
-        <f t="shared" ref="AM12:AM37" si="19">COUNTIFS(AJ:AJ, AL12)</f>
+        <f t="shared" ref="AM12:AM38" si="19">COUNTIFS(AJ:AJ, AL12)</f>
         <v>106</v>
       </c>
       <c r="AN12" s="7">
-        <f t="shared" ref="AN12:AN37" si="20">AM12/(SUM(AM$11:AM$37))</f>
+        <f t="shared" ref="AN12:AN38" si="20">AM12/(SUM(AM$11:AM$38))</f>
         <v>0.96363636363636362</v>
       </c>
     </row>
@@ -5485,6 +5485,17 @@
       <c r="AJ38" s="4">
         <f t="shared" si="18"/>
         <v>1</v>
+      </c>
+      <c r="AL38" s="8">
+        <v>27</v>
+      </c>
+      <c r="AM38" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AN38" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.25">
